--- a/examtopics_answer.xlsx
+++ b/examtopics_answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yixiangzhang/Documents/DP_203/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FE04FB-E044-5848-AFB5-6B863BC125EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27716E66-2317-2449-B1F2-401E81CA3EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{B4B0642E-629A-9847-B5A2-CEAE09AB6D60}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Question</t>
   </si>
@@ -45,6 +45,30 @@
   </si>
   <si>
     <t>BE</t>
+  </si>
+  <si>
+    <t>common: replicated; marketing: hash; staging: round-robin</t>
+  </si>
+  <si>
+    <t>CLUSTER COLUMNSTORE INDEX; Hash([ProductKey])</t>
+  </si>
+  <si>
+    <t>once per year</t>
+  </si>
+  <si>
+    <t>MERGE</t>
+  </si>
+  <si>
+    <t>D, parquet</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>replicated</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -396,13 +420,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4EECAC-0E6A-4648-8649-B0D439AF5DC6}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -714,155 +741,64 @@
       <c r="A61">
         <v>60</v>
       </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>90</v>
+      <c r="B68" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
